--- a/enriched_jira_data_with_simulated.xlsx
+++ b/enriched_jira_data_with_simulated.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ajit\Downloads\jira_resource_management_app (6)\Resmon5\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A21612-90D3-448D-A326-17800FF2E48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Issues" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
     <sheet name="Resource Costs" sheetId="7" r:id="rId7"/>
     <sheet name="Technical Debt" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -788,11 +794,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -864,13 +870,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -908,7 +922,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -942,6 +956,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -976,9 +991,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1151,17 +1167,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="19" max="27" width="9.140625" style="1"/>
+    <col min="19" max="22" width="9.1796875" style="1"/>
+    <col min="23" max="23" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="27" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1244,7 +1262,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1303,7 +1321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1362,7 +1380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:27">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1412,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Z4" s="1">
         <v>3</v>
@@ -1421,7 +1439,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>30</v>
       </c>
@@ -1483,7 +1501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:27">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>31</v>
       </c>
@@ -1554,7 +1572,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:27">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1637,7 +1655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1720,7 +1738,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1800,7 +1818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -1859,7 +1877,7 @@
         <v>1</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="Z10" s="1">
         <v>5</v>
@@ -1868,7 +1886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>36</v>
       </c>
@@ -1942,7 +1960,7 @@
         <v>131</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="Z11" s="1">
         <v>2</v>
@@ -1951,7 +1969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -2019,7 +2037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>38</v>
       </c>
@@ -2102,7 +2120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>39</v>
       </c>
@@ -2164,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Z14" s="1">
         <v>2</v>
@@ -2173,7 +2191,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2235,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Z15" s="1">
         <v>1</v>
@@ -2244,7 +2262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -2312,7 +2330,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:27">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2392,7 +2410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:27">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>43</v>
       </c>
@@ -2463,7 +2481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:27">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -2537,7 +2555,7 @@
         <v>137</v>
       </c>
       <c r="Y19" s="1">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Z19" s="1">
         <v>3</v>
@@ -2546,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:27">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -2608,7 +2626,7 @@
         <v>1</v>
       </c>
       <c r="Y20" s="1">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="Z20" s="1">
         <v>4</v>
@@ -2617,7 +2635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -2688,7 +2706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:27">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>47</v>
       </c>
@@ -2771,7 +2789,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:27">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -2839,7 +2857,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:27">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -2910,7 +2928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:27">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>50</v>
       </c>
@@ -2990,7 +3008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:27">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -3061,7 +3079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:27">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -3141,7 +3159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -3212,7 +3230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:27">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -3271,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="Y29" s="1">
-        <v>1.11</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="Z29" s="1">
         <v>7</v>
@@ -3280,7 +3298,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -3351,7 +3369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:27">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -3419,7 +3437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:27">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>57</v>
       </c>
@@ -3490,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:27">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>58</v>
       </c>
@@ -3561,7 +3579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:27">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>59</v>
       </c>
@@ -3632,7 +3650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:27">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>60</v>
       </c>
@@ -3703,7 +3721,7 @@
         <v>132</v>
       </c>
       <c r="Y35" s="1">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="Z35" s="1">
         <v>2</v>
@@ -3712,7 +3730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:27">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>61</v>
       </c>
@@ -3792,7 +3810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="37" spans="1:27">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>62</v>
       </c>
@@ -3875,7 +3893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:27">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>63</v>
       </c>
@@ -3955,7 +3973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:27">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>64</v>
       </c>
@@ -4014,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="Z39" s="1">
         <v>2</v>
@@ -4023,7 +4041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:27">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>65</v>
       </c>
@@ -4091,7 +4109,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:27">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>66</v>
       </c>
@@ -4159,7 +4177,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:27">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -4239,7 +4257,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="43" spans="1:27">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -4307,7 +4325,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:27">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>69</v>
       </c>
@@ -4378,7 +4396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:27">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>70</v>
       </c>
@@ -4449,7 +4467,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:27">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>71</v>
       </c>
@@ -4517,7 +4535,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="47" spans="1:27">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -4585,7 +4603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:27">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>73</v>
       </c>
@@ -4662,17 +4680,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="6" width="9.140625" style="1"/>
+    <col min="3" max="6" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>174</v>
       </c>
@@ -4692,7 +4710,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>137</v>
       </c>
@@ -4712,7 +4730,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>138</v>
       </c>
@@ -4729,7 +4747,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>135</v>
       </c>
@@ -4749,7 +4767,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -4769,7 +4787,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>133</v>
       </c>
@@ -4786,7 +4804,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>134</v>
       </c>
@@ -4806,7 +4824,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>136</v>
       </c>
@@ -4820,13 +4838,13 @@
         <v>181</v>
       </c>
       <c r="E8" s="1">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="F8" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>131</v>
       </c>
@@ -4846,7 +4864,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>130</v>
       </c>
@@ -4872,14 +4890,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D92"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4893,7 +4914,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -4907,7 +4928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -4921,7 +4942,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>28</v>
       </c>
@@ -4935,7 +4956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -4949,7 +4970,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -4963,7 +4984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -4977,7 +4998,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -4991,7 +5012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -5005,7 +5026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -5019,7 +5040,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -5033,7 +5054,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -5047,7 +5068,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -5061,7 +5082,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -5075,7 +5096,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -5089,7 +5110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -5103,7 +5124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>36</v>
       </c>
@@ -5117,7 +5138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -5131,7 +5152,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -5145,7 +5166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -5159,7 +5180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -5173,7 +5194,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -5187,7 +5208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -5201,7 +5222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>38</v>
       </c>
@@ -5215,7 +5236,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>39</v>
       </c>
@@ -5229,7 +5250,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -5243,7 +5264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>39</v>
       </c>
@@ -5257,7 +5278,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -5271,7 +5292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>41</v>
       </c>
@@ -5285,7 +5306,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -5299,7 +5320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -5313,7 +5334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -5327,7 +5348,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>43</v>
       </c>
@@ -5341,7 +5362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>44</v>
       </c>
@@ -5355,7 +5376,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>45</v>
       </c>
@@ -5369,7 +5390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -5383,7 +5404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>45</v>
       </c>
@@ -5397,7 +5418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>46</v>
       </c>
@@ -5411,7 +5432,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -5425,7 +5446,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>46</v>
       </c>
@@ -5439,7 +5460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -5453,7 +5474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>48</v>
       </c>
@@ -5467,7 +5488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -5481,7 +5502,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -5495,7 +5516,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -5509,7 +5530,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -5523,7 +5544,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -5537,7 +5558,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -5551,7 +5572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>50</v>
       </c>
@@ -5565,7 +5586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -5579,7 +5600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>52</v>
       </c>
@@ -5593,7 +5614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>53</v>
       </c>
@@ -5607,7 +5628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>53</v>
       </c>
@@ -5621,7 +5642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -5635,7 +5656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -5649,7 +5670,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -5663,7 +5684,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -5677,7 +5698,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -5691,7 +5712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -5705,7 +5726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>56</v>
       </c>
@@ -5719,7 +5740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>57</v>
       </c>
@@ -5733,7 +5754,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>58</v>
       </c>
@@ -5747,7 +5768,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>58</v>
       </c>
@@ -5761,7 +5782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -5775,7 +5796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -5789,7 +5810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -5803,7 +5824,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>60</v>
       </c>
@@ -5817,7 +5838,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>61</v>
       </c>
@@ -5831,7 +5852,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>61</v>
       </c>
@@ -5845,7 +5866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>62</v>
       </c>
@@ -5859,7 +5880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>62</v>
       </c>
@@ -5873,7 +5894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>63</v>
       </c>
@@ -5887,7 +5908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>64</v>
       </c>
@@ -5901,7 +5922,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>64</v>
       </c>
@@ -5915,7 +5936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>65</v>
       </c>
@@ -5929,7 +5950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>65</v>
       </c>
@@ -5943,7 +5964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>65</v>
       </c>
@@ -5957,7 +5978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>66</v>
       </c>
@@ -5971,7 +5992,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>66</v>
       </c>
@@ -5985,7 +6006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>67</v>
       </c>
@@ -5999,7 +6020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>67</v>
       </c>
@@ -6013,7 +6034,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>68</v>
       </c>
@@ -6027,7 +6048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -6041,7 +6062,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>69</v>
       </c>
@@ -6055,7 +6076,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>69</v>
       </c>
@@ -6069,7 +6090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>69</v>
       </c>
@@ -6083,7 +6104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>70</v>
       </c>
@@ -6097,7 +6118,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>71</v>
       </c>
@@ -6111,7 +6132,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>71</v>
       </c>
@@ -6125,7 +6146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>72</v>
       </c>
@@ -6139,7 +6160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>73</v>
       </c>
@@ -6153,7 +6174,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>73</v>
       </c>
@@ -6173,17 +6194,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -6197,7 +6221,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45783</v>
       </c>
@@ -6211,7 +6235,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>45771</v>
       </c>
@@ -6225,7 +6249,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>45792</v>
       </c>
@@ -6239,7 +6263,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>45783</v>
       </c>
@@ -6253,7 +6277,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>45764</v>
       </c>
@@ -6267,7 +6291,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>45789</v>
       </c>
@@ -6281,7 +6305,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>45779</v>
       </c>
@@ -6295,7 +6319,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>45788</v>
       </c>
@@ -6309,7 +6333,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>45789</v>
       </c>
@@ -6323,7 +6347,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>45775</v>
       </c>
@@ -6337,7 +6361,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>45778</v>
       </c>
@@ -6351,7 +6375,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45788</v>
       </c>
@@ -6371,17 +6395,22 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>196</v>
       </c>
@@ -6395,7 +6424,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -6409,7 +6438,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>60</v>
       </c>
@@ -6423,7 +6452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -6437,7 +6466,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>53</v>
       </c>
@@ -6451,7 +6480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>64</v>
       </c>
@@ -6465,7 +6494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>50</v>
       </c>
@@ -6479,7 +6508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>67</v>
       </c>
@@ -6493,7 +6522,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -6507,7 +6536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
@@ -6521,7 +6550,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
@@ -6535,7 +6564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>67</v>
       </c>
@@ -6549,7 +6578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
@@ -6563,7 +6592,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
@@ -6577,7 +6606,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>48</v>
       </c>
@@ -6591,7 +6620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>43</v>
       </c>
@@ -6605,7 +6634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>70</v>
       </c>
@@ -6619,7 +6648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -6633,7 +6662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
@@ -6647,7 +6676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>62</v>
       </c>
@@ -6661,7 +6690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>51</v>
       </c>
@@ -6675,7 +6704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
@@ -6689,7 +6718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
@@ -6703,7 +6732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>57</v>
       </c>
@@ -6717,7 +6746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>44</v>
       </c>
@@ -6731,7 +6760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
@@ -6745,7 +6774,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>59</v>
       </c>
@@ -6759,7 +6788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>65</v>
       </c>
@@ -6773,7 +6802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -6787,7 +6816,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
@@ -6801,7 +6830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
@@ -6815,7 +6844,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>47</v>
       </c>
@@ -6829,7 +6858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>71</v>
       </c>
@@ -6843,7 +6872,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>27</v>
       </c>
@@ -6857,7 +6886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>43</v>
       </c>
@@ -6871,7 +6900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>64</v>
       </c>
@@ -6885,7 +6914,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>56</v>
       </c>
@@ -6899,7 +6928,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>36</v>
       </c>
@@ -6913,7 +6942,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>30</v>
       </c>
@@ -6927,7 +6956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>60</v>
       </c>
@@ -6941,7 +6970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>52</v>
       </c>
@@ -6955,7 +6984,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
@@ -6969,7 +6998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>60</v>
       </c>
@@ -6983,7 +7012,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>35</v>
       </c>
@@ -6997,7 +7026,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>32</v>
       </c>
@@ -7011,7 +7040,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>52</v>
       </c>
@@ -7025,7 +7054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
@@ -7045,17 +7074,17 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
+    <col min="1" max="5" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
@@ -7072,7 +7101,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -7089,7 +7118,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>139</v>
       </c>
@@ -7106,7 +7135,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>139</v>
       </c>
@@ -7123,7 +7152,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>139</v>
       </c>
@@ -7140,7 +7169,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>139</v>
       </c>
@@ -7157,7 +7186,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>139</v>
       </c>
@@ -7174,7 +7203,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>139</v>
       </c>
@@ -7191,7 +7220,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>139</v>
       </c>
@@ -7208,7 +7237,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>139</v>
       </c>
@@ -7225,7 +7254,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>140</v>
       </c>
@@ -7239,10 +7268,10 @@
         <v>15</v>
       </c>
       <c r="E11" s="1">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>140</v>
       </c>
@@ -7259,7 +7288,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>140</v>
       </c>
@@ -7273,10 +7302,10 @@
         <v>17</v>
       </c>
       <c r="E13" s="1">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>140</v>
       </c>
@@ -7293,7 +7322,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>140</v>
       </c>
@@ -7310,7 +7339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>140</v>
       </c>
@@ -7327,7 +7356,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>140</v>
       </c>
@@ -7344,7 +7373,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>140</v>
       </c>
@@ -7361,7 +7390,7 @@
         <v>0.91</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>140</v>
       </c>
@@ -7378,7 +7407,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>141</v>
       </c>
@@ -7395,7 +7424,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>141</v>
       </c>
@@ -7412,7 +7441,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>141</v>
       </c>
@@ -7429,7 +7458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>141</v>
       </c>
@@ -7446,7 +7475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>141</v>
       </c>
@@ -7460,10 +7489,10 @@
         <v>16</v>
       </c>
       <c r="E24" s="1">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>141</v>
       </c>
@@ -7480,7 +7509,7 @@
         <v>0.93</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>141</v>
       </c>
@@ -7497,7 +7526,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>141</v>
       </c>
@@ -7514,7 +7543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>141</v>
       </c>
@@ -7531,7 +7560,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>142</v>
       </c>
@@ -7548,7 +7577,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>142</v>
       </c>
@@ -7562,10 +7591,10 @@
         <v>17</v>
       </c>
       <c r="E30" s="1">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>142</v>
       </c>
@@ -7582,7 +7611,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>142</v>
       </c>
@@ -7599,7 +7628,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>142</v>
       </c>
@@ -7616,7 +7645,7 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>142</v>
       </c>
@@ -7633,7 +7662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>142</v>
       </c>
@@ -7650,7 +7679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>142</v>
       </c>
@@ -7667,7 +7696,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>142</v>
       </c>
@@ -7684,7 +7713,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>143</v>
       </c>
@@ -7701,7 +7730,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>143</v>
       </c>
@@ -7718,7 +7747,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>143</v>
       </c>
@@ -7735,7 +7764,7 @@
         <v>1.06</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>143</v>
       </c>
@@ -7752,7 +7781,7 @@
         <v>0.89</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>143</v>
       </c>
@@ -7766,10 +7795,10 @@
         <v>13</v>
       </c>
       <c r="E42" s="1">
-        <v>0.8100000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>143</v>
       </c>
@@ -7783,10 +7812,10 @@
         <v>15</v>
       </c>
       <c r="E43" s="1">
-        <v>0.9399999999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>143</v>
       </c>
@@ -7803,7 +7832,7 @@
         <v>0.71</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>143</v>
       </c>
@@ -7820,7 +7849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>143</v>
       </c>
@@ -7843,17 +7872,23 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="1"/>
+    <col min="1" max="1" width="8.7265625" style="1" bestFit="1"/>
+    <col min="2" max="2" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>174</v>
       </c>
@@ -7873,7 +7908,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>137</v>
       </c>
@@ -7887,13 +7922,13 @@
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>45719.57340548172</v>
+        <v>45719.573405481722</v>
       </c>
       <c r="F2" s="3">
-        <v>45834.57340548172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>45834.573405481722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>138</v>
       </c>
@@ -7913,7 +7948,7 @@
         <v>45843.57340549674</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
@@ -7927,13 +7962,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>45726.57340551574</v>
+        <v>45726.573405515737</v>
       </c>
       <c r="F4" s="3">
-        <v>45824.57340551574</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>45824.573405515737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>132</v>
       </c>
@@ -7947,13 +7982,13 @@
         <v>0.75</v>
       </c>
       <c r="E5" s="3">
-        <v>45710.57340553593</v>
+        <v>45710.573405535928</v>
       </c>
       <c r="F5" s="3">
-        <v>45854.57340553593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>45854.573405535928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>133</v>
       </c>
@@ -7967,13 +8002,13 @@
         <v>0.5</v>
       </c>
       <c r="E6" s="3">
-        <v>45696.57340555562</v>
+        <v>45696.573405555617</v>
       </c>
       <c r="F6" s="3">
-        <v>45867.57340555562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>45867.573405555617</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>134</v>
       </c>
@@ -7987,13 +8022,13 @@
         <v>0.75</v>
       </c>
       <c r="E7" s="3">
-        <v>45735.57340557432</v>
+        <v>45735.573405574323</v>
       </c>
       <c r="F7" s="3">
-        <v>45832.57340557432</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>45832.573405574323</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>136</v>
       </c>
@@ -8007,13 +8042,13 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="3">
-        <v>45744.57340559077</v>
+        <v>45744.573405590767</v>
       </c>
       <c r="F8" s="3">
-        <v>45885.57340559077</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>45885.573405590767</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>131</v>
       </c>
@@ -8027,13 +8062,13 @@
         <v>0.75</v>
       </c>
       <c r="E9" s="3">
-        <v>45750.57340560823</v>
+        <v>45750.573405608229</v>
       </c>
       <c r="F9" s="3">
-        <v>45868.57340560823</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>45868.573405608229</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>130</v>
       </c>
@@ -8047,10 +8082,10 @@
         <v>0.5</v>
       </c>
       <c r="E10" s="3">
-        <v>45698.57340562443</v>
+        <v>45698.573405624433</v>
       </c>
       <c r="F10" s="3">
-        <v>45870.57340562443</v>
+        <v>45870.573405624433</v>
       </c>
     </row>
   </sheetData>
@@ -8059,17 +8094,27 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="9" width="9.140625" style="1"/>
+    <col min="1" max="1" width="6.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>212</v>
       </c>
@@ -8098,7 +8143,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>220</v>
       </c>
@@ -8115,10 +8160,10 @@
         <v>8</v>
       </c>
       <c r="F2" s="3">
-        <v>45711.5734065223</v>
+        <v>45711.573406522301</v>
       </c>
       <c r="G2" s="3">
-        <v>45752.5734065223</v>
+        <v>45752.573406522301</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>131</v>
@@ -8127,7 +8172,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>221</v>
       </c>
@@ -8144,10 +8189,10 @@
         <v>4</v>
       </c>
       <c r="F3" s="3">
-        <v>45742.5734065334</v>
+        <v>45742.573406533404</v>
       </c>
       <c r="G3" s="3">
-        <v>45844.5734065334</v>
+        <v>45844.573406533404</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>136</v>
@@ -8156,7 +8201,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>222</v>
       </c>
@@ -8173,10 +8218,10 @@
         <v>6</v>
       </c>
       <c r="F4" s="3">
-        <v>45685.57340655082</v>
+        <v>45685.573406550822</v>
       </c>
       <c r="G4" s="3">
-        <v>45786.57340655082</v>
+        <v>45786.573406550822</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>138</v>
@@ -8185,7 +8230,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>223</v>
       </c>
@@ -8202,10 +8247,10 @@
         <v>10</v>
       </c>
       <c r="F5" s="3">
-        <v>45712.57340656577</v>
+        <v>45712.573406565767</v>
       </c>
       <c r="G5" s="3">
-        <v>45783.57340656577</v>
+        <v>45783.573406565767</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>132</v>
@@ -8214,7 +8259,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>224</v>
       </c>
@@ -8231,10 +8276,10 @@
         <v>14</v>
       </c>
       <c r="F6" s="3">
-        <v>45753.57340657918</v>
+        <v>45753.573406579177</v>
       </c>
       <c r="G6" s="3">
-        <v>45831.57340657918</v>
+        <v>45831.573406579177</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>136</v>
@@ -8243,7 +8288,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>225</v>
       </c>
@@ -8260,10 +8305,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="3">
-        <v>45736.57340659424</v>
+        <v>45736.573406594238</v>
       </c>
       <c r="G7" s="3">
-        <v>45781.57340659424</v>
+        <v>45781.573406594238</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>137</v>
@@ -8272,7 +8317,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>226</v>
       </c>
@@ -8289,10 +8334,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="3">
-        <v>45726.5734066085</v>
+        <v>45726.573406608499</v>
       </c>
       <c r="G8" s="3">
-        <v>45772.5734066085</v>
+        <v>45772.573406608499</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>136</v>
@@ -8301,7 +8346,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>227</v>
       </c>
@@ -8318,10 +8363,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="3">
-        <v>45746.57340662212</v>
+        <v>45746.573406622119</v>
       </c>
       <c r="G9" s="3">
-        <v>45851.57340662212</v>
+        <v>45851.573406622119</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>131</v>
@@ -8330,7 +8375,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>228</v>
       </c>
@@ -8347,10 +8392,10 @@
         <v>16</v>
       </c>
       <c r="F10" s="3">
-        <v>45701.57340663505</v>
+        <v>45701.573406635049</v>
       </c>
       <c r="G10" s="3">
-        <v>45754.57340663505</v>
+        <v>45754.573406635049</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>132</v>
@@ -8359,7 +8404,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>229</v>
       </c>
@@ -8376,10 +8421,10 @@
         <v>18</v>
       </c>
       <c r="F11" s="3">
-        <v>45771.57340664741</v>
+        <v>45771.573406647411</v>
       </c>
       <c r="G11" s="3">
-        <v>45837.57340664741</v>
+        <v>45837.573406647411</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>131</v>
@@ -8388,7 +8433,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>230</v>
       </c>
@@ -8405,10 +8450,10 @@
         <v>19</v>
       </c>
       <c r="F12" s="3">
-        <v>45754.57340666129</v>
+        <v>45754.573406661293</v>
       </c>
       <c r="G12" s="3">
-        <v>45816.57340666129</v>
+        <v>45816.573406661293</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>130</v>
@@ -8417,7 +8462,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>231</v>
       </c>
@@ -8434,10 +8479,10 @@
         <v>4</v>
       </c>
       <c r="F13" s="3">
-        <v>45683.57340667673</v>
+        <v>45683.573406676733</v>
       </c>
       <c r="G13" s="3">
-        <v>45716.57340667673</v>
+        <v>45716.573406676733</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>131</v>
@@ -8446,7 +8491,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>232</v>
       </c>
@@ -8463,10 +8508,10 @@
         <v>4</v>
       </c>
       <c r="F14" s="3">
-        <v>45740.5734066888</v>
+        <v>45740.573406688804</v>
       </c>
       <c r="G14" s="3">
-        <v>45795.5734066888</v>
+        <v>45795.573406688804</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>137</v>
@@ -8475,7 +8520,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>233</v>
       </c>
@@ -8492,10 +8537,10 @@
         <v>19</v>
       </c>
       <c r="F15" s="3">
-        <v>45722.57340670275</v>
+        <v>45722.573406702752</v>
       </c>
       <c r="G15" s="3">
-        <v>45779.57340670275</v>
+        <v>45779.573406702752</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>135</v>
@@ -8504,7 +8549,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>234</v>
       </c>
@@ -8521,10 +8566,10 @@
         <v>9</v>
       </c>
       <c r="F16" s="3">
-        <v>45718.57340671721</v>
+        <v>45718.573406717209</v>
       </c>
       <c r="G16" s="3">
-        <v>45820.57340671721</v>
+        <v>45820.573406717209</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>138</v>
